--- a/Python MP/Baseline/MP_SalesSegments.xlsx
+++ b/Python MP/Baseline/MP_SalesSegments.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>Level</t>
   </si>
@@ -88,6 +88,9 @@
     <t>RBD | GUINEA-BISSAU | 200846</t>
   </si>
   <si>
+    <t>RBD | LIBERIA | 200550</t>
+  </si>
+  <si>
     <t>RBD | BURKINA FASO | 200163</t>
   </si>
   <si>
@@ -311,6 +314,12 @@
   </si>
   <si>
     <t>RBD | LIBERIA | 200395 [NF]</t>
+  </si>
+  <si>
+    <t>RBD | LIBERIA | 200550 [F]</t>
+  </si>
+  <si>
+    <t>RBD | LIBERIA | 200550 [NF]</t>
   </si>
   <si>
     <t>RBD | MALI | 200719 [F]</t>
@@ -780,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1012,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="n">
-        <v>202560.01</v>
+        <v>400000</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>42917</v>
@@ -1017,7 +1026,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="n">
-        <v>75844.81</v>
+        <v>202560.01</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>42917</v>
@@ -1031,7 +1040,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="n">
-        <v>1933888.3</v>
+        <v>75844.81</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>42917</v>
@@ -1045,7 +1054,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="n">
-        <v>4926736.55</v>
+        <v>1933888.3</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>42917</v>
@@ -1059,7 +1068,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="n">
-        <v>376203.13</v>
+        <v>4926736.55</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>42917</v>
@@ -1073,7 +1082,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="n">
-        <v>4713971.31</v>
+        <v>376203.13</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>42917</v>
@@ -1087,7 +1096,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="n">
-        <v>1577422.7</v>
+        <v>4713971.31</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>42917</v>
@@ -1101,7 +1110,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="n">
-        <v>1866795.64</v>
+        <v>1577422.7</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>42917</v>
@@ -1115,7 +1124,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="n">
-        <v>332669.15</v>
+        <v>1866795.64</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>42917</v>
@@ -1129,7 +1138,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="n">
-        <v>2182254.88</v>
+        <v>332669.15</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>42917</v>
@@ -1138,6 +1147,20 @@
         <v>32</v>
       </c>
       <c r="D25" s="4" t="n">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="n">
+        <v>2182254.88</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>42917</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4" t="n">
         <v>42887</v>
       </c>
     </row>
@@ -1152,7 +1175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1165,16 +1188,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1182,10 +1205,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="n">
-        <v>91004.91021463368</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>42887</v>
@@ -1197,10 +1220,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="n">
-        <v>206863.9828333333</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>42887</v>
@@ -1212,10 +1235,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="n">
-        <v>373433.9103333333</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>42887</v>
@@ -1227,7 +1250,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="n">
-        <v>241433.11361</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1242,10 +1265,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="n">
-        <v>2131129.645980339</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>42887</v>
@@ -1257,7 +1280,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="n">
-        <v>954419.243556527</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1272,7 +1295,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="n">
-        <v>1498457.070004401</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1287,7 +1310,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="n">
-        <v>110945.38625</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1302,7 +1325,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="n">
-        <v>1066228.351364672</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1317,10 +1340,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="n">
-        <v>673725.434816667</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>42887</v>
@@ -1332,10 +1355,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="n">
-        <v>86719.02450000001</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>42887</v>
@@ -1347,10 +1370,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="n">
-        <v>389857.7960366667</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>42887</v>
@@ -1362,7 +1385,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="n">
-        <v>112957.7919854735</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1377,10 +1400,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="n">
-        <v>139228.2083333333</v>
+        <v>339632.704</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>42887</v>
@@ -1392,7 +1415,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="n">
-        <v>42230.93166666666</v>
+        <v>252779.12419</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1407,7 +1430,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="n">
-        <v>232284.7404605556</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1422,10 +1445,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="n">
-        <v>262839.7924916667</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>42887</v>
@@ -1437,430 +1460,430 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="n">
-        <v>1230383.163666666</v>
+        <v>7132.712044</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>42887</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="n">
-        <v>107338.2425266667</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>42887</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="n">
-        <v>246370.9095933334</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>42887</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="n">
-        <v>1451928.677334079</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>42887</v>
       </c>
       <c r="D22" t="n">
-        <v>20.09</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="n">
-        <v>4293395.303043333</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>42887</v>
       </c>
       <c r="D23" t="n">
-        <v>17.9</v>
+        <v>20.09</v>
       </c>
       <c r="E23" t="s"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="n">
-        <v>13016210.30916667</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>42887</v>
       </c>
       <c r="D24" t="n">
-        <v>18.19</v>
+        <v>17.9</v>
       </c>
       <c r="E24" t="s"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="n">
-        <v>7.760166666666667</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>42887</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>18.19</v>
       </c>
       <c r="E25" t="s"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="n">
-        <v>116829.55758</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>42887</v>
       </c>
       <c r="D26" t="n">
-        <v>14.9</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="n">
-        <v>558796.3469833335</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>42887</v>
       </c>
       <c r="D27" t="n">
-        <v>20.8</v>
+        <v>14.9</v>
       </c>
       <c r="E27" t="s"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="n">
-        <v>91004.91021463368</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>20.8</v>
       </c>
       <c r="E28" t="s"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="n">
-        <v>206863.9828333333</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="n">
-        <v>373433.9103333333</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D30" t="n">
-        <v>24.6</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="n">
-        <v>241433.11361</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>24.6</v>
       </c>
       <c r="E31" t="s"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="n">
-        <v>2131129.645980339</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D32" t="n">
-        <v>18.93</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="n">
-        <v>954419.243556527</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D33" t="n">
-        <v>19.3</v>
+        <v>18.93</v>
       </c>
       <c r="E33" t="s"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="n">
-        <v>1498457.070004401</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D34" t="n">
-        <v>26.2</v>
+        <v>19.3</v>
       </c>
       <c r="E34" t="s"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="n">
-        <v>110945.38625</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D35" t="n">
-        <v>17.5</v>
+        <v>26.2</v>
       </c>
       <c r="E35" t="s"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="n">
-        <v>1066228.351364672</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D36" t="n">
-        <v>18.2</v>
+        <v>17.5</v>
       </c>
       <c r="E36" t="s"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="n">
-        <v>673725.434816667</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D37" t="n">
-        <v>20.3</v>
+        <v>18.2</v>
       </c>
       <c r="E37" t="s"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="n">
-        <v>86719.02450000001</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D38" t="n">
-        <v>23.3</v>
+        <v>20.3</v>
       </c>
       <c r="E38" t="s"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="n">
-        <v>389857.7960366667</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D39" t="n">
-        <v>27.1</v>
+        <v>23.3</v>
       </c>
       <c r="E39" t="s"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="n">
-        <v>112957.7919854735</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>27.1</v>
       </c>
       <c r="E40" t="s"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="n">
-        <v>139228.2083333333</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D41" t="n">
-        <v>19.9</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="n">
-        <v>42230.93166666666</v>
+        <v>339632.704</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D42" t="n">
-        <v>19</v>
+        <v>19.9</v>
       </c>
       <c r="E42" t="s"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="n">
-        <v>232284.7404605556</v>
+        <v>252779.12419</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D43" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="n">
-        <v>262839.7924916667</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D44" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="n">
-        <v>1230383.163666666</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="n">
-        <v>107338.2425266667</v>
+        <v>7132.712044</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="n">
-        <v>246370.9095933334</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>42917</v>
@@ -1872,157 +1895,157 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="n">
-        <v>1451928.677334079</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D48" t="n">
-        <v>20.09</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="n">
-        <v>4293395.303043333</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D49" t="n">
-        <v>17.9</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="n">
-        <v>13016210.30916667</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C50" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D50" t="n">
-        <v>18.19</v>
+        <v>20.09</v>
       </c>
       <c r="E50" t="s"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="n">
-        <v>7.760166666666667</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>17.9</v>
       </c>
       <c r="E51" t="s"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="n">
-        <v>116829.55758</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D52" t="n">
-        <v>14.9</v>
+        <v>18.19</v>
       </c>
       <c r="E52" t="s"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="n">
-        <v>558796.3469833335</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>42917</v>
       </c>
       <c r="D53" t="n">
-        <v>20.8</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="n">
-        <v>91004.91021463368</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>14.9</v>
       </c>
       <c r="E54" t="s"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="n">
-        <v>206863.9828333333</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="D55" t="n">
-        <v>23</v>
+        <v>20.8</v>
       </c>
       <c r="E55" t="s"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="n">
-        <v>373433.9103333333</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D56" t="n">
-        <v>24.6</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="n">
-        <v>241433.11361</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D57" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="n">
-        <v>2131129.645980339</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B58" t="s">
         <v>30</v>
@@ -2031,913 +2054,913 @@
         <v>42948</v>
       </c>
       <c r="D58" t="n">
-        <v>18.93</v>
+        <v>24.6</v>
       </c>
       <c r="E58" t="s"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="n">
-        <v>954419.243556527</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D59" t="n">
-        <v>19.3</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="n">
-        <v>1498457.070004401</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D60" t="n">
-        <v>26.2</v>
+        <v>18.93</v>
       </c>
       <c r="E60" t="s"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="n">
-        <v>110945.38625</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D61" t="n">
-        <v>17.5</v>
+        <v>19.3</v>
       </c>
       <c r="E61" t="s"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="n">
-        <v>1066228.351364672</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D62" t="n">
-        <v>18.2</v>
+        <v>26.2</v>
       </c>
       <c r="E62" t="s"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="n">
-        <v>673725.434816667</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D63" t="n">
-        <v>20.3</v>
+        <v>17.5</v>
       </c>
       <c r="E63" t="s"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="n">
-        <v>86719.02450000001</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D64" t="n">
-        <v>23.3</v>
+        <v>18.2</v>
       </c>
       <c r="E64" t="s"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="n">
-        <v>389857.7960366667</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D65" t="n">
-        <v>27.1</v>
+        <v>20.3</v>
       </c>
       <c r="E65" t="s"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="n">
-        <v>112957.7919854735</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D66" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="E66" t="s"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="n">
-        <v>139228.2083333333</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D67" t="n">
-        <v>19.9</v>
+        <v>27.1</v>
       </c>
       <c r="E67" t="s"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="n">
-        <v>42230.93166666666</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="n">
-        <v>232284.7404605556</v>
+        <v>339632.704</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D69" t="n">
-        <v>27</v>
+        <v>19.9</v>
       </c>
       <c r="E69" t="s"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="n">
-        <v>262839.7924916667</v>
+        <v>252779.12419</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D70" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="n">
-        <v>1230383.163666666</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D71" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E71" t="s"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="n">
-        <v>107338.2425266667</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E72" t="s"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="n">
-        <v>246370.9095933334</v>
+        <v>7132.712044</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E73" t="s"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="n">
-        <v>1451928.677334079</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D74" t="n">
-        <v>20.09</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="n">
-        <v>4293395.303043333</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D75" t="n">
-        <v>17.9</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="n">
-        <v>13016210.30916667</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D76" t="n">
-        <v>18.19</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="n">
-        <v>7.760166666666667</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D77" t="n">
-        <v>25</v>
+        <v>20.09</v>
       </c>
       <c r="E77" t="s"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="n">
-        <v>116829.55758</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D78" t="n">
-        <v>14.9</v>
+        <v>17.9</v>
       </c>
       <c r="E78" t="s"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="n">
-        <v>558796.3469833335</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>42948</v>
       </c>
       <c r="D79" t="n">
-        <v>20.8</v>
+        <v>18.19</v>
       </c>
       <c r="E79" t="s"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="n">
-        <v>91004.91021463368</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="D80" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="n">
-        <v>206863.9828333333</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>14.9</v>
       </c>
       <c r="E81" t="s"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="n">
-        <v>373433.9103333333</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B82" t="s">
         <v>29</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="D82" t="n">
-        <v>24.6</v>
+        <v>20.8</v>
       </c>
       <c r="E82" t="s"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="n">
-        <v>241433.11361</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D83" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E83" t="s"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="n">
-        <v>2131129.645980339</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D84" t="n">
-        <v>18.93</v>
+        <v>23</v>
       </c>
       <c r="E84" t="s"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="n">
-        <v>954419.243556527</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D85" t="n">
-        <v>19.3</v>
+        <v>24.6</v>
       </c>
       <c r="E85" t="s"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="n">
-        <v>1498457.070004401</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D86" t="n">
-        <v>26.2</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="n">
-        <v>110945.38625</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D87" t="n">
-        <v>17.5</v>
+        <v>18.93</v>
       </c>
       <c r="E87" t="s"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="n">
-        <v>1066228.351364672</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D88" t="n">
-        <v>18.2</v>
+        <v>19.3</v>
       </c>
       <c r="E88" t="s"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="n">
-        <v>673725.434816667</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D89" t="n">
-        <v>20.3</v>
+        <v>26.2</v>
       </c>
       <c r="E89" t="s"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="n">
-        <v>86719.02450000001</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C90" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D90" t="n">
-        <v>23.3</v>
+        <v>17.5</v>
       </c>
       <c r="E90" t="s"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="n">
-        <v>389857.7960366667</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C91" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D91" t="n">
-        <v>27.1</v>
+        <v>18.2</v>
       </c>
       <c r="E91" t="s"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="n">
-        <v>112957.7919854735</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D92" t="n">
-        <v>24</v>
+        <v>20.3</v>
       </c>
       <c r="E92" t="s"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="n">
-        <v>139228.2083333333</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D93" t="n">
-        <v>19.9</v>
+        <v>23.3</v>
       </c>
       <c r="E93" t="s"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="n">
-        <v>42230.93166666666</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D94" t="n">
-        <v>19</v>
+        <v>27.1</v>
       </c>
       <c r="E94" t="s"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="n">
-        <v>232284.7404605556</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D95" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="n">
-        <v>262839.7924916667</v>
+        <v>339632.704</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D96" t="n">
-        <v>59</v>
+        <v>19.9</v>
       </c>
       <c r="E96" t="s"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="n">
-        <v>1230383.163666666</v>
+        <v>252779.12419</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="n">
-        <v>107338.2425266667</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D98" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E98" t="s"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="n">
-        <v>246370.9095933334</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D99" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E99" t="s"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="n">
-        <v>1451928.677334079</v>
+        <v>7132.712044</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D100" t="n">
-        <v>20.09</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="n">
-        <v>4293395.303043333</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D101" t="n">
-        <v>17.9</v>
+        <v>21</v>
       </c>
       <c r="E101" t="s"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="n">
-        <v>13016210.30916667</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D102" t="n">
-        <v>18.19</v>
+        <v>20</v>
       </c>
       <c r="E102" t="s"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="n">
-        <v>7.760166666666667</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D103" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="n">
-        <v>116829.55758</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D104" t="n">
-        <v>14.9</v>
+        <v>20.09</v>
       </c>
       <c r="E104" t="s"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="n">
-        <v>558796.3469833335</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>42979</v>
       </c>
       <c r="D105" t="n">
-        <v>20.8</v>
+        <v>17.9</v>
       </c>
       <c r="E105" t="s"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="n">
-        <v>91004.91021463368</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="D106" t="n">
-        <v>40</v>
+        <v>18.19</v>
       </c>
       <c r="E106" t="s"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="n">
-        <v>206863.9828333333</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="D107" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E107" t="s"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="n">
-        <v>373433.9103333333</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C108" s="4" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="D108" t="n">
-        <v>24.6</v>
+        <v>14.9</v>
       </c>
       <c r="E108" t="s"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="n">
-        <v>241433.11361</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C109" s="4" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="D109" t="n">
-        <v>18</v>
+        <v>20.8</v>
       </c>
       <c r="E109" t="s"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="n">
-        <v>2131129.645980339</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D110" t="n">
-        <v>18.93</v>
+        <v>40</v>
       </c>
       <c r="E110" t="s"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="n">
-        <v>954419.243556527</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C111" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D111" t="n">
-        <v>19.3</v>
+        <v>23</v>
       </c>
       <c r="E111" t="s"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="n">
-        <v>1498457.070004401</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D112" t="n">
-        <v>26.2</v>
+        <v>24.6</v>
       </c>
       <c r="E112" t="s"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="n">
-        <v>110945.38625</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C113" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D113" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="E113" t="s"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="n">
-        <v>1066228.351364672</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D114" t="n">
-        <v>18.2</v>
+        <v>18.93</v>
       </c>
       <c r="E114" t="s"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="n">
-        <v>673725.434816667</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D115" t="n">
-        <v>20.3</v>
+        <v>19.3</v>
       </c>
       <c r="E115" t="s"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="n">
-        <v>86719.02450000001</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C116" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D116" t="n">
-        <v>23.3</v>
+        <v>26.2</v>
       </c>
       <c r="E116" t="s"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="n">
-        <v>389857.7960366667</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D117" t="n">
-        <v>27.1</v>
+        <v>17.5</v>
       </c>
       <c r="E117" t="s"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="n">
-        <v>112957.7919854735</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D118" t="n">
-        <v>24</v>
+        <v>18.2</v>
       </c>
       <c r="E118" t="s"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="n">
-        <v>139228.2083333333</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B119" t="s">
         <v>27</v>
@@ -2946,1903 +2969,1903 @@
         <v>43009</v>
       </c>
       <c r="D119" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="E119" t="s"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="n">
-        <v>42230.93166666666</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C120" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D120" t="n">
-        <v>19</v>
+        <v>23.3</v>
       </c>
       <c r="E120" t="s"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="n">
-        <v>232284.7404605556</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D121" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="E121" t="s"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="n">
-        <v>262839.7924916667</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C122" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D122" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E122" t="s"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="n">
-        <v>1230383.163666666</v>
+        <v>339632.704</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C123" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D123" t="n">
-        <v>21</v>
+        <v>19.9</v>
       </c>
       <c r="E123" t="s"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="n">
-        <v>107338.2425266667</v>
+        <v>252779.12419</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D124" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="n">
-        <v>246370.9095933334</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D125" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E125" t="s"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="n">
-        <v>1451928.677334079</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D126" t="n">
-        <v>20.09</v>
+        <v>59</v>
       </c>
       <c r="E126" t="s"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="n">
-        <v>4293395.303043333</v>
+        <v>7132.712044</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C127" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D127" t="n">
-        <v>17.9</v>
+        <v>19</v>
       </c>
       <c r="E127" t="s"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="n">
-        <v>13016210.30916667</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C128" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D128" t="n">
-        <v>18.19</v>
+        <v>21</v>
       </c>
       <c r="E128" t="s"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="n">
-        <v>7.760166666666667</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C129" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D129" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E129" t="s"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="n">
-        <v>116829.55758</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D130" t="n">
-        <v>14.9</v>
+        <v>21</v>
       </c>
       <c r="E130" t="s"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="n">
-        <v>558796.3469833335</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C131" s="4" t="n">
         <v>43009</v>
       </c>
       <c r="D131" t="n">
-        <v>20.8</v>
+        <v>20.09</v>
       </c>
       <c r="E131" t="s"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="n">
-        <v>91004.91021463368</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C132" s="4" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="D132" t="n">
-        <v>40</v>
+        <v>17.9</v>
       </c>
       <c r="E132" t="s"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="n">
-        <v>206863.9828333333</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C133" s="4" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="D133" t="n">
-        <v>23</v>
+        <v>18.19</v>
       </c>
       <c r="E133" t="s"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="n">
-        <v>373433.9103333333</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C134" s="4" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="D134" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="E134" t="s"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="n">
-        <v>241433.11361</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C135" s="4" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="D135" t="n">
-        <v>18</v>
+        <v>14.9</v>
       </c>
       <c r="E135" t="s"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="n">
-        <v>2131129.645980339</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136" s="4" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="D136" t="n">
-        <v>18.93</v>
+        <v>20.8</v>
       </c>
       <c r="E136" t="s"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="n">
-        <v>954419.243556527</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D137" t="n">
-        <v>19.3</v>
+        <v>40</v>
       </c>
       <c r="E137" t="s"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="n">
-        <v>1498457.070004401</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C138" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D138" t="n">
-        <v>26.2</v>
+        <v>23</v>
       </c>
       <c r="E138" t="s"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="n">
-        <v>110945.38625</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C139" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D139" t="n">
-        <v>17.5</v>
+        <v>24.6</v>
       </c>
       <c r="E139" t="s"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="n">
-        <v>1066228.351364672</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C140" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D140" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="E140" t="s"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="n">
-        <v>673725.434816667</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D141" t="n">
-        <v>20.3</v>
+        <v>18.93</v>
       </c>
       <c r="E141" t="s"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="n">
-        <v>86719.02450000001</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C142" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D142" t="n">
-        <v>23.3</v>
+        <v>19.3</v>
       </c>
       <c r="E142" t="s"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="n">
-        <v>389857.7960366667</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D143" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="E143" t="s"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="n">
-        <v>112957.7919854735</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C144" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D144" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="E144" t="s"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="n">
-        <v>139228.2083333333</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C145" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D145" t="n">
-        <v>19.9</v>
+        <v>18.2</v>
       </c>
       <c r="E145" t="s"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="n">
-        <v>42230.93166666666</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C146" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D146" t="n">
-        <v>19</v>
+        <v>20.3</v>
       </c>
       <c r="E146" t="s"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="n">
-        <v>232284.7404605556</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D147" t="n">
-        <v>27</v>
+        <v>23.3</v>
       </c>
       <c r="E147" t="s"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="n">
-        <v>262839.7924916667</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D148" t="n">
-        <v>59</v>
+        <v>27.1</v>
       </c>
       <c r="E148" t="s"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="n">
-        <v>1230383.163666666</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C149" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D149" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E149" t="s"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="n">
-        <v>107338.2425266667</v>
+        <v>339632.704</v>
       </c>
       <c r="B150" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C150" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D150" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="E150" t="s"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="n">
-        <v>246370.9095933334</v>
+        <v>252779.12419</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C151" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D151" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E151" t="s"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="n">
-        <v>1451928.677334079</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C152" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D152" t="n">
-        <v>20.09</v>
+        <v>27</v>
       </c>
       <c r="E152" t="s"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="n">
-        <v>4293395.303043333</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C153" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D153" t="n">
-        <v>17.9</v>
+        <v>59</v>
       </c>
       <c r="E153" t="s"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="n">
-        <v>13016210.30916667</v>
+        <v>7132.712044</v>
       </c>
       <c r="B154" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C154" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D154" t="n">
-        <v>18.19</v>
+        <v>19</v>
       </c>
       <c r="E154" t="s"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="n">
-        <v>7.760166666666667</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C155" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D155" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E155" t="s"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="n">
-        <v>116829.55758</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C156" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D156" t="n">
-        <v>14.9</v>
+        <v>20</v>
       </c>
       <c r="E156" t="s"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="n">
-        <v>558796.3469833335</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C157" s="4" t="n">
         <v>43040</v>
       </c>
       <c r="D157" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="E157" t="s"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="n">
-        <v>91004.91021463368</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C158" s="4" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="D158" t="n">
-        <v>40</v>
+        <v>20.09</v>
       </c>
       <c r="E158" t="s"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="n">
-        <v>206863.9828333333</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B159" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C159" s="4" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="D159" t="n">
-        <v>23</v>
+        <v>17.9</v>
       </c>
       <c r="E159" t="s"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="n">
-        <v>373433.9103333333</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B160" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C160" s="4" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="D160" t="n">
-        <v>24.6</v>
+        <v>18.19</v>
       </c>
       <c r="E160" t="s"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="n">
-        <v>241433.11361</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C161" s="4" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="D161" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E161" t="s"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="n">
-        <v>2131129.645980339</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B162" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C162" s="4" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="D162" t="n">
-        <v>18.93</v>
+        <v>14.9</v>
       </c>
       <c r="E162" t="s"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="n">
-        <v>954419.243556527</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C163" s="4" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="D163" t="n">
-        <v>19.3</v>
+        <v>20.8</v>
       </c>
       <c r="E163" t="s"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="n">
-        <v>1498457.070004401</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C164" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D164" t="n">
-        <v>26.2</v>
+        <v>40</v>
       </c>
       <c r="E164" t="s"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="n">
-        <v>110945.38625</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C165" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D165" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="E165" t="s"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="n">
-        <v>1066228.351364672</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C166" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D166" t="n">
-        <v>18.2</v>
+        <v>24.6</v>
       </c>
       <c r="E166" t="s"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="n">
-        <v>673725.434816667</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D167" t="n">
-        <v>20.3</v>
+        <v>18</v>
       </c>
       <c r="E167" t="s"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="n">
-        <v>86719.02450000001</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C168" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D168" t="n">
-        <v>23.3</v>
+        <v>18.93</v>
       </c>
       <c r="E168" t="s"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="n">
-        <v>389857.7960366667</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B169" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C169" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D169" t="n">
-        <v>27.1</v>
+        <v>19.3</v>
       </c>
       <c r="E169" t="s"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="n">
-        <v>112957.7919854735</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C170" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D170" t="n">
-        <v>24</v>
+        <v>26.2</v>
       </c>
       <c r="E170" t="s"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="n">
-        <v>139228.2083333333</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C171" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D171" t="n">
-        <v>19.9</v>
+        <v>17.5</v>
       </c>
       <c r="E171" t="s"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="n">
-        <v>42230.93166666666</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C172" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D172" t="n">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="E172" t="s"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="n">
-        <v>232284.7404605556</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B173" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C173" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D173" t="n">
-        <v>27</v>
+        <v>20.3</v>
       </c>
       <c r="E173" t="s"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="n">
-        <v>262839.7924916667</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C174" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D174" t="n">
-        <v>59</v>
+        <v>23.3</v>
       </c>
       <c r="E174" t="s"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="n">
-        <v>1230383.163666666</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C175" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D175" t="n">
-        <v>21</v>
+        <v>27.1</v>
       </c>
       <c r="E175" t="s"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="n">
-        <v>107338.2425266667</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C176" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D176" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E176" t="s"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="n">
-        <v>246370.9095933334</v>
+        <v>339632.704</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C177" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D177" t="n">
-        <v>21</v>
+        <v>19.9</v>
       </c>
       <c r="E177" t="s"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="n">
-        <v>1451928.677334079</v>
+        <v>252779.12419</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C178" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D178" t="n">
-        <v>20.09</v>
+        <v>19</v>
       </c>
       <c r="E178" t="s"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="n">
-        <v>4293395.303043333</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C179" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D179" t="n">
-        <v>17.9</v>
+        <v>27</v>
       </c>
       <c r="E179" t="s"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="n">
-        <v>13016210.30916667</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B180" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C180" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D180" t="n">
-        <v>18.19</v>
+        <v>59</v>
       </c>
       <c r="E180" t="s"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="n">
-        <v>7.760166666666667</v>
+        <v>7132.712044</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C181" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D181" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E181" t="s"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="n">
-        <v>116829.55758</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B182" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C182" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D182" t="n">
-        <v>14.9</v>
+        <v>21</v>
       </c>
       <c r="E182" t="s"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="n">
-        <v>558796.3469833335</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B183" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C183" s="4" t="n">
         <v>43070</v>
       </c>
       <c r="D183" t="n">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="E183" t="s"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="n">
-        <v>91004.91021463368</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B184" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C184" s="4" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="D184" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E184" t="s"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="n">
-        <v>206863.9828333333</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B185" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C185" s="4" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="D185" t="n">
-        <v>23</v>
+        <v>20.09</v>
       </c>
       <c r="E185" t="s"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="n">
-        <v>373433.9103333333</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C186" s="4" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="D186" t="n">
-        <v>24.6</v>
+        <v>17.9</v>
       </c>
       <c r="E186" t="s"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="n">
-        <v>241433.11361</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C187" s="4" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="D187" t="n">
-        <v>18</v>
+        <v>18.19</v>
       </c>
       <c r="E187" t="s"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="n">
-        <v>2131129.645980339</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C188" s="4" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="D188" t="n">
-        <v>18.93</v>
+        <v>25</v>
       </c>
       <c r="E188" t="s"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="n">
-        <v>954419.243556527</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C189" s="4" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="D189" t="n">
-        <v>19.3</v>
+        <v>14.9</v>
       </c>
       <c r="E189" t="s"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="n">
-        <v>1498457.070004401</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C190" s="4" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="D190" t="n">
-        <v>26.2</v>
+        <v>20.8</v>
       </c>
       <c r="E190" t="s"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="n">
-        <v>110945.38625</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C191" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D191" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="E191" t="s"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="n">
-        <v>1066228.351364672</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C192" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D192" t="n">
-        <v>18.2</v>
+        <v>23</v>
       </c>
       <c r="E192" t="s"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="n">
-        <v>673725.434816667</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B193" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C193" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D193" t="n">
-        <v>20.3</v>
+        <v>24.6</v>
       </c>
       <c r="E193" t="s"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="n">
-        <v>86719.02450000001</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C194" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D194" t="n">
-        <v>23.3</v>
+        <v>18</v>
       </c>
       <c r="E194" t="s"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="n">
-        <v>389857.7960366667</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C195" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D195" t="n">
-        <v>27.1</v>
+        <v>18.93</v>
       </c>
       <c r="E195" t="s"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="n">
-        <v>112957.7919854735</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C196" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D196" t="n">
-        <v>24</v>
+        <v>19.3</v>
       </c>
       <c r="E196" t="s"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="n">
-        <v>139228.2083333333</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B197" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C197" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D197" t="n">
-        <v>19.9</v>
+        <v>26.2</v>
       </c>
       <c r="E197" t="s"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="n">
-        <v>42230.93166666666</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C198" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D198" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="E198" t="s"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="n">
-        <v>232284.7404605556</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B199" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C199" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D199" t="n">
-        <v>27</v>
+        <v>18.2</v>
       </c>
       <c r="E199" t="s"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="n">
-        <v>262839.7924916667</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C200" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D200" t="n">
-        <v>59</v>
+        <v>20.3</v>
       </c>
       <c r="E200" t="s"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="n">
-        <v>1230383.163666666</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C201" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D201" t="n">
-        <v>21</v>
+        <v>23.3</v>
       </c>
       <c r="E201" t="s"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="n">
-        <v>107338.2425266667</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B202" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C202" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D202" t="n">
-        <v>20</v>
+        <v>27.1</v>
       </c>
       <c r="E202" t="s"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="n">
-        <v>246370.9095933334</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C203" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D203" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E203" t="s"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="n">
-        <v>1451928.677334079</v>
+        <v>339632.704</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C204" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D204" t="n">
-        <v>20.09</v>
+        <v>19.9</v>
       </c>
       <c r="E204" t="s"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="n">
-        <v>4293395.303043333</v>
+        <v>252779.12419</v>
       </c>
       <c r="B205" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C205" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D205" t="n">
-        <v>17.9</v>
+        <v>19</v>
       </c>
       <c r="E205" t="s"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="n">
-        <v>13016210.30916667</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C206" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D206" t="n">
-        <v>18.19</v>
+        <v>27</v>
       </c>
       <c r="E206" t="s"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="n">
-        <v>7.760166666666667</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C207" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D207" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E207" t="s"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="n">
-        <v>116829.55758</v>
+        <v>7132.712044</v>
       </c>
       <c r="B208" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C208" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D208" t="n">
-        <v>14.9</v>
+        <v>19</v>
       </c>
       <c r="E208" t="s"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="n">
-        <v>558796.3469833335</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C209" s="4" t="n">
         <v>43101</v>
       </c>
       <c r="D209" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="E209" t="s"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="n">
-        <v>91004.91021463368</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B210" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C210" s="4" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D210" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E210" t="s"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="n">
-        <v>206863.9828333333</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B211" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C211" s="4" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D211" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E211" t="s"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="n">
-        <v>373433.9103333333</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B212" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C212" s="4" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D212" t="n">
-        <v>24.6</v>
+        <v>20.09</v>
       </c>
       <c r="E212" t="s"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="n">
-        <v>241433.11361</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C213" s="4" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D213" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="E213" t="s"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="n">
-        <v>2131129.645980339</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C214" s="4" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D214" t="n">
-        <v>18.93</v>
+        <v>18.19</v>
       </c>
       <c r="E214" t="s"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="n">
-        <v>954419.243556527</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C215" s="4" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D215" t="n">
-        <v>19.3</v>
+        <v>25</v>
       </c>
       <c r="E215" t="s"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="n">
-        <v>1498457.070004401</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B216" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C216" s="4" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D216" t="n">
-        <v>26.2</v>
+        <v>14.9</v>
       </c>
       <c r="E216" t="s"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="n">
-        <v>110945.38625</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B217" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C217" s="4" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D217" t="n">
-        <v>17.5</v>
+        <v>20.8</v>
       </c>
       <c r="E217" t="s"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="n">
-        <v>1066228.351364672</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C218" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D218" t="n">
-        <v>18.2</v>
+        <v>40</v>
       </c>
       <c r="E218" t="s"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="n">
-        <v>673725.434816667</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B219" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C219" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D219" t="n">
-        <v>20.3</v>
+        <v>23</v>
       </c>
       <c r="E219" t="s"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="n">
-        <v>86719.02450000001</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C220" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D220" t="n">
-        <v>23.3</v>
+        <v>24.6</v>
       </c>
       <c r="E220" t="s"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="n">
-        <v>389857.7960366667</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B221" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C221" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D221" t="n">
-        <v>27.1</v>
+        <v>18</v>
       </c>
       <c r="E221" t="s"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="n">
-        <v>112957.7919854735</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C222" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D222" t="n">
-        <v>24</v>
+        <v>18.93</v>
       </c>
       <c r="E222" t="s"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="n">
-        <v>139228.2083333333</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B223" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C223" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D223" t="n">
-        <v>19.9</v>
+        <v>19.3</v>
       </c>
       <c r="E223" t="s"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="n">
-        <v>42230.93166666666</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C224" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D224" t="n">
-        <v>19</v>
+        <v>26.2</v>
       </c>
       <c r="E224" t="s"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="n">
-        <v>232284.7404605556</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B225" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C225" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D225" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="E225" t="s"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="n">
-        <v>262839.7924916667</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B226" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C226" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D226" t="n">
-        <v>59</v>
+        <v>18.2</v>
       </c>
       <c r="E226" t="s"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="n">
-        <v>1230383.163666666</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C227" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D227" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="E227" t="s"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="n">
-        <v>107338.2425266667</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B228" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C228" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D228" t="n">
-        <v>20</v>
+        <v>23.3</v>
       </c>
       <c r="E228" t="s"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="n">
-        <v>246370.9095933334</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C229" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D229" t="n">
-        <v>21</v>
+        <v>27.1</v>
       </c>
       <c r="E229" t="s"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="n">
-        <v>1451928.677334079</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C230" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D230" t="n">
-        <v>20.09</v>
+        <v>24</v>
       </c>
       <c r="E230" t="s"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="n">
-        <v>4293395.303043333</v>
+        <v>339632.704</v>
       </c>
       <c r="B231" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C231" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D231" t="n">
-        <v>17.9</v>
+        <v>19.9</v>
       </c>
       <c r="E231" t="s"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="n">
-        <v>13016210.30916667</v>
+        <v>252779.12419</v>
       </c>
       <c r="B232" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C232" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D232" t="n">
-        <v>18.19</v>
+        <v>19</v>
       </c>
       <c r="E232" t="s"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="n">
-        <v>7.760166666666667</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C233" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D233" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E233" t="s"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="n">
-        <v>116829.55758</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B234" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C234" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D234" t="n">
-        <v>14.9</v>
+        <v>59</v>
       </c>
       <c r="E234" t="s"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="n">
-        <v>558796.3469833335</v>
+        <v>7132.712044</v>
       </c>
       <c r="B235" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C235" s="4" t="n">
         <v>43132</v>
       </c>
       <c r="D235" t="n">
-        <v>20.8</v>
+        <v>19</v>
       </c>
       <c r="E235" t="s"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="n">
-        <v>91004.91021463368</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B236" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C236" s="4" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D236" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E236" t="s"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="n">
-        <v>206863.9828333333</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B237" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C237" s="4" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D237" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E237" t="s"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="n">
-        <v>373433.9103333333</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B238" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C238" s="4" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D238" t="n">
-        <v>24.6</v>
+        <v>21</v>
       </c>
       <c r="E238" t="s"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="n">
-        <v>241433.11361</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C239" s="4" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D239" t="n">
-        <v>18</v>
+        <v>20.09</v>
       </c>
       <c r="E239" t="s"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="n">
-        <v>2131129.645980339</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B240" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C240" s="4" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D240" t="n">
-        <v>18.93</v>
+        <v>17.9</v>
       </c>
       <c r="E240" t="s"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="n">
-        <v>954419.243556527</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B241" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C241" s="4" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D241" t="n">
-        <v>19.3</v>
+        <v>18.19</v>
       </c>
       <c r="E241" t="s"/>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="n">
-        <v>1498457.070004401</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B242" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C242" s="4" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D242" t="n">
-        <v>26.2</v>
+        <v>25</v>
       </c>
       <c r="E242" t="s"/>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="n">
-        <v>110945.38625</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B243" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C243" s="4" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D243" t="n">
-        <v>17.5</v>
+        <v>14.9</v>
       </c>
       <c r="E243" t="s"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="n">
-        <v>1066228.351364672</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C244" s="4" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D244" t="n">
-        <v>18.2</v>
+        <v>20.8</v>
       </c>
       <c r="E244" t="s"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="n">
-        <v>673725.434816667</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B245" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C245" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D245" t="n">
-        <v>20.3</v>
+        <v>40</v>
       </c>
       <c r="E245" t="s"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="n">
-        <v>86719.02450000001</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B246" t="s">
         <v>24</v>
@@ -4851,553 +4874,553 @@
         <v>43160</v>
       </c>
       <c r="D246" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="E246" t="s"/>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="n">
-        <v>389857.7960366667</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B247" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C247" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D247" t="n">
-        <v>27.1</v>
+        <v>24.6</v>
       </c>
       <c r="E247" t="s"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="n">
-        <v>112957.7919854735</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C248" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D248" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E248" t="s"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="n">
-        <v>139228.2083333333</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B249" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C249" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D249" t="n">
-        <v>19.9</v>
+        <v>18.93</v>
       </c>
       <c r="E249" t="s"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="n">
-        <v>42230.93166666666</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C250" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D250" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="E250" t="s"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="n">
-        <v>232284.7404605556</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B251" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C251" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D251" t="n">
-        <v>27</v>
+        <v>26.2</v>
       </c>
       <c r="E251" t="s"/>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="n">
-        <v>262839.7924916667</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C252" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D252" t="n">
-        <v>59</v>
+        <v>17.5</v>
       </c>
       <c r="E252" t="s"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="n">
-        <v>1230383.163666666</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C253" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D253" t="n">
-        <v>21</v>
+        <v>18.2</v>
       </c>
       <c r="E253" t="s"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="n">
-        <v>107338.2425266667</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B254" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C254" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D254" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="E254" t="s"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="n">
-        <v>246370.9095933334</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B255" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C255" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D255" t="n">
-        <v>21</v>
+        <v>23.3</v>
       </c>
       <c r="E255" t="s"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="n">
-        <v>1451928.677334079</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C256" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D256" t="n">
-        <v>20.09</v>
+        <v>27.1</v>
       </c>
       <c r="E256" t="s"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="n">
-        <v>4293395.303043333</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B257" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C257" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D257" t="n">
-        <v>17.9</v>
+        <v>24</v>
       </c>
       <c r="E257" t="s"/>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="n">
-        <v>13016210.30916667</v>
+        <v>339632.704</v>
       </c>
       <c r="B258" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C258" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D258" t="n">
-        <v>18.19</v>
+        <v>19.9</v>
       </c>
       <c r="E258" t="s"/>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="n">
-        <v>7.760166666666667</v>
+        <v>252779.12419</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C259" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D259" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E259" t="s"/>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="n">
-        <v>116829.55758</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B260" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C260" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D260" t="n">
-        <v>14.9</v>
+        <v>27</v>
       </c>
       <c r="E260" t="s"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="n">
-        <v>558796.3469833335</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B261" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C261" s="4" t="n">
         <v>43160</v>
       </c>
       <c r="D261" t="n">
-        <v>20.8</v>
+        <v>59</v>
       </c>
       <c r="E261" t="s"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="n">
-        <v>91004.91021463368</v>
+        <v>7132.712044</v>
       </c>
       <c r="B262" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C262" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D262" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E262" t="s"/>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="n">
-        <v>206863.9828333333</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B263" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C263" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D263" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E263" t="s"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="n">
-        <v>373433.9103333333</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B264" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C264" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D264" t="n">
-        <v>24.6</v>
+        <v>20</v>
       </c>
       <c r="E264" t="s"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="n">
-        <v>241433.11361</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C265" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D265" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E265" t="s"/>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="n">
-        <v>2131129.645980339</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B266" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C266" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D266" t="n">
-        <v>18.93</v>
+        <v>20.09</v>
       </c>
       <c r="E266" t="s"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="n">
-        <v>954419.243556527</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B267" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C267" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D267" t="n">
-        <v>19.3</v>
+        <v>17.9</v>
       </c>
       <c r="E267" t="s"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="n">
-        <v>1498457.070004401</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B268" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C268" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D268" t="n">
-        <v>26.2</v>
+        <v>18.19</v>
       </c>
       <c r="E268" t="s"/>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="n">
-        <v>110945.38625</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B269" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C269" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D269" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="E269" t="s"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="n">
-        <v>1066228.351364672</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C270" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D270" t="n">
-        <v>18.2</v>
+        <v>14.9</v>
       </c>
       <c r="E270" t="s"/>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="n">
-        <v>673725.434816667</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B271" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C271" s="4" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D271" t="n">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="E271" t="s"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="n">
-        <v>86719.02450000001</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B272" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C272" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D272" t="n">
-        <v>23.3</v>
+        <v>40</v>
       </c>
       <c r="E272" t="s"/>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="n">
-        <v>389857.7960366667</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B273" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C273" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D273" t="n">
-        <v>27.1</v>
+        <v>23</v>
       </c>
       <c r="E273" t="s"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="n">
-        <v>112957.7919854735</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B274" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C274" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D274" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="E274" t="s"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="n">
-        <v>139228.2083333333</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B275" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C275" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D275" t="n">
-        <v>19.9</v>
+        <v>18</v>
       </c>
       <c r="E275" t="s"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="n">
-        <v>42230.93166666666</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C276" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D276" t="n">
-        <v>19</v>
+        <v>18.93</v>
       </c>
       <c r="E276" t="s"/>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="n">
-        <v>232284.7404605556</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B277" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C277" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D277" t="n">
-        <v>27</v>
+        <v>19.3</v>
       </c>
       <c r="E277" t="s"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="n">
-        <v>262839.7924916667</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B278" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C278" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D278" t="n">
-        <v>59</v>
+        <v>26.2</v>
       </c>
       <c r="E278" t="s"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="n">
-        <v>1230383.163666666</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C279" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D279" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="E279" t="s"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="n">
-        <v>107338.2425266667</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B280" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C280" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D280" t="n">
-        <v>20</v>
+        <v>18.2</v>
       </c>
       <c r="E280" t="s"/>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="n">
-        <v>246370.9095933334</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B281" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C281" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D281" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="E281" t="s"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="n">
-        <v>1451928.677334079</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C282" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D282" t="n">
-        <v>20.09</v>
+        <v>23.3</v>
       </c>
       <c r="E282" t="s"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="n">
-        <v>4293395.303043333</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B283" t="s">
         <v>37</v>
@@ -5406,459 +5429,639 @@
         <v>43191</v>
       </c>
       <c r="D283" t="n">
-        <v>17.9</v>
+        <v>27.1</v>
       </c>
       <c r="E283" t="s"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="n">
-        <v>13016210.30916667</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B284" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C284" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D284" t="n">
-        <v>18.19</v>
+        <v>24</v>
       </c>
       <c r="E284" t="s"/>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="n">
-        <v>7.760166666666667</v>
+        <v>339632.704</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C285" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D285" t="n">
-        <v>25</v>
+        <v>19.9</v>
       </c>
       <c r="E285" t="s"/>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="n">
-        <v>116829.55758</v>
+        <v>252779.12419</v>
       </c>
       <c r="B286" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C286" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D286" t="n">
-        <v>14.9</v>
+        <v>19</v>
       </c>
       <c r="E286" t="s"/>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="n">
-        <v>558796.3469833335</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B287" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C287" s="4" t="n">
         <v>43191</v>
       </c>
       <c r="D287" t="n">
-        <v>20.8</v>
+        <v>27</v>
       </c>
       <c r="E287" t="s"/>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="n">
-        <v>91004.91021463368</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B288" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C288" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D288" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E288" t="s"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="n">
-        <v>206863.9828333333</v>
+        <v>7132.712044</v>
       </c>
       <c r="B289" t="s">
         <v>23</v>
       </c>
       <c r="C289" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D289" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E289" t="s"/>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="n">
-        <v>373433.9103333333</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B290" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C290" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D290" t="n">
-        <v>24.6</v>
+        <v>21</v>
       </c>
       <c r="E290" t="s"/>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="n">
-        <v>241433.11361</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C291" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D291" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E291" t="s"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="n">
-        <v>2131129.645980339</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B292" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C292" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D292" t="n">
-        <v>18.93</v>
+        <v>21</v>
       </c>
       <c r="E292" t="s"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="n">
-        <v>954419.243556527</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B293" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C293" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D293" t="n">
-        <v>19.3</v>
+        <v>20.09</v>
       </c>
       <c r="E293" t="s"/>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="n">
-        <v>1498457.070004401</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C294" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D294" t="n">
-        <v>26.2</v>
+        <v>17.9</v>
       </c>
       <c r="E294" t="s"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="n">
-        <v>110945.38625</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B295" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C295" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D295" t="n">
-        <v>17.5</v>
+        <v>18.19</v>
       </c>
       <c r="E295" t="s"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="n">
-        <v>1066228.351364672</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C296" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D296" t="n">
-        <v>18.2</v>
+        <v>25</v>
       </c>
       <c r="E296" t="s"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="n">
-        <v>673725.434816667</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B297" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C297" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D297" t="n">
-        <v>20.3</v>
+        <v>14.9</v>
       </c>
       <c r="E297" t="s"/>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="n">
-        <v>86719.02450000001</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B298" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C298" s="4" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D298" t="n">
-        <v>23.3</v>
+        <v>20.8</v>
       </c>
       <c r="E298" t="s"/>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="n">
-        <v>389857.7960366667</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B299" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C299" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D299" t="n">
-        <v>27.1</v>
+        <v>40</v>
       </c>
       <c r="E299" t="s"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="n">
-        <v>112957.7919854735</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C300" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D300" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E300" t="s"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="n">
-        <v>139228.2083333333</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B301" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C301" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D301" t="n">
-        <v>19.9</v>
+        <v>24.6</v>
       </c>
       <c r="E301" t="s"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="n">
-        <v>42230.93166666666</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C302" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D302" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E302" t="s"/>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="n">
-        <v>232284.7404605556</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B303" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C303" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D303" t="n">
-        <v>27</v>
+        <v>18.93</v>
       </c>
       <c r="E303" t="s"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="n">
-        <v>262839.7924916667</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B304" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C304" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D304" t="n">
-        <v>59</v>
+        <v>19.3</v>
       </c>
       <c r="E304" t="s"/>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="n">
-        <v>1230383.163666666</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B305" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C305" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D305" t="n">
-        <v>21</v>
+        <v>26.2</v>
       </c>
       <c r="E305" t="s"/>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="n">
-        <v>107338.2425266667</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B306" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C306" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D306" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="E306" t="s"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="n">
-        <v>246370.9095933334</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B307" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C307" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D307" t="n">
-        <v>21</v>
+        <v>18.2</v>
       </c>
       <c r="E307" t="s"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="n">
-        <v>1451928.677334079</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C308" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D308" t="n">
-        <v>20.09</v>
+        <v>20.3</v>
       </c>
       <c r="E308" t="s"/>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="n">
-        <v>4293395.303043333</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B309" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C309" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D309" t="n">
-        <v>17.9</v>
+        <v>23.3</v>
       </c>
       <c r="E309" t="s"/>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="n">
-        <v>13016210.30916667</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B310" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C310" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D310" t="n">
-        <v>18.19</v>
+        <v>27.1</v>
       </c>
       <c r="E310" t="s"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="n">
-        <v>7.760166666666667</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B311" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C311" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D311" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E311" t="s"/>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="n">
-        <v>116829.55758</v>
+        <v>339632.704</v>
       </c>
       <c r="B312" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C312" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D312" t="n">
-        <v>14.9</v>
+        <v>19.9</v>
       </c>
       <c r="E312" t="s"/>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="n">
-        <v>558796.3469833335</v>
+        <v>252779.12419</v>
       </c>
       <c r="B313" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C313" s="4" t="n">
         <v>43221</v>
       </c>
       <c r="D313" t="n">
+        <v>19</v>
+      </c>
+      <c r="E313" t="s"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="n">
+        <v>456703.1426871222</v>
+      </c>
+      <c r="B314" t="s">
+        <v>22</v>
+      </c>
+      <c r="C314" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D314" t="n">
+        <v>27</v>
+      </c>
+      <c r="E314" t="s"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="n">
+        <v>741984.7203741666</v>
+      </c>
+      <c r="B315" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D315" t="n">
+        <v>59</v>
+      </c>
+      <c r="E315" t="s"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="n">
+        <v>7132.712044</v>
+      </c>
+      <c r="B316" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D316" t="n">
+        <v>19</v>
+      </c>
+      <c r="E316" t="s"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="n">
+        <v>2267307.723960656</v>
+      </c>
+      <c r="B317" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D317" t="n">
+        <v>21</v>
+      </c>
+      <c r="E317" t="s"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="n">
+        <v>151313.1390283999</v>
+      </c>
+      <c r="B318" t="s">
+        <v>21</v>
+      </c>
+      <c r="C318" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D318" t="n">
+        <v>20</v>
+      </c>
+      <c r="E318" t="s"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="n">
+        <v>235832.6611080666</v>
+      </c>
+      <c r="B319" t="s">
+        <v>16</v>
+      </c>
+      <c r="C319" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D319" t="n">
+        <v>21</v>
+      </c>
+      <c r="E319" t="s"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="n">
+        <v>3080983.469449091</v>
+      </c>
+      <c r="B320" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D320" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="E320" t="s"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="n">
+        <v>7276299.300801496</v>
+      </c>
+      <c r="B321" t="s">
+        <v>38</v>
+      </c>
+      <c r="C321" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D321" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E321" t="s"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="n">
+        <v>18670865.11195</v>
+      </c>
+      <c r="B322" t="s">
+        <v>26</v>
+      </c>
+      <c r="C322" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D322" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="E322" t="s"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="n">
+        <v>96895.34662586667</v>
+      </c>
+      <c r="B323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D323" t="n">
+        <v>25</v>
+      </c>
+      <c r="E323" t="s"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="n">
+        <v>414761.1476699999</v>
+      </c>
+      <c r="B324" t="s">
+        <v>18</v>
+      </c>
+      <c r="C324" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D324" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E324" t="s"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="n">
+        <v>771583.3100430039</v>
+      </c>
+      <c r="B325" t="s">
+        <v>29</v>
+      </c>
+      <c r="C325" s="4" t="n">
+        <v>43221</v>
+      </c>
+      <c r="D325" t="n">
         <v>20.8</v>
       </c>
-      <c r="E313" t="s"/>
+      <c r="E325" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5871,7 +6074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5881,22 +6084,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5904,14 +6107,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s"/>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s"/>
     </row>
@@ -5920,16 +6123,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
       </c>
       <c r="F3" t="s"/>
     </row>
@@ -5938,16 +6141,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s"/>
     </row>
@@ -5956,16 +6159,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s"/>
     </row>
@@ -5974,16 +6177,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s"/>
     </row>
@@ -5992,16 +6195,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s"/>
     </row>
@@ -6010,16 +6213,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s"/>
     </row>
@@ -6028,16 +6231,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s"/>
     </row>
@@ -6046,16 +6249,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s"/>
     </row>
@@ -6064,16 +6267,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s"/>
     </row>
@@ -6082,16 +6285,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s"/>
     </row>
@@ -6100,16 +6303,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s"/>
     </row>
@@ -6118,16 +6321,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s"/>
     </row>
@@ -6136,16 +6339,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s"/>
     </row>
@@ -6154,16 +6357,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s"/>
     </row>
@@ -6172,16 +6375,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s"/>
     </row>
@@ -6190,16 +6393,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s"/>
     </row>
@@ -6208,19 +6411,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" t="n">
-        <v>229125.7887326764</v>
+        <v>1072452.642158037</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6228,16 +6431,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
       </c>
       <c r="F20" t="s"/>
     </row>
@@ -6246,16 +6449,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s"/>
     </row>
@@ -6264,19 +6467,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" t="n">
-        <v>185462.3410075224</v>
+        <v>1411456.940202111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6284,16 +6487,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s"/>
     </row>
@@ -6302,16 +6505,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s"/>
     </row>
@@ -6320,19 +6523,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" t="n">
-        <v>594849.8529875042</v>
+        <v>1462357.118858854</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6340,16 +6543,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s"/>
     </row>
@@ -6358,16 +6561,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s"/>
     </row>
@@ -6376,19 +6579,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" t="n">
-        <v>1147301.536876287</v>
+        <v>795851.6224961239</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6396,16 +6599,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s"/>
     </row>
@@ -6414,16 +6617,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s"/>
     </row>
@@ -6432,19 +6635,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" t="n">
-        <v>6649563.347326147</v>
+        <v>6696547.248886553</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6452,16 +6655,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s"/>
     </row>
@@ -6470,16 +6673,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s"/>
     </row>
@@ -6488,19 +6691,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F34" t="n">
-        <v>2069638.253731851</v>
+        <v>1048018.263879973</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6508,16 +6711,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s"/>
     </row>
@@ -6526,16 +6729,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s"/>
     </row>
@@ -6544,19 +6747,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" t="n">
-        <v>2949733.69315222</v>
+        <v>6627898.726514986</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6564,16 +6767,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s"/>
     </row>
@@ -6582,16 +6785,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s"/>
     </row>
@@ -6600,19 +6803,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F40" t="n">
-        <v>158779.7832571089</v>
+        <v>789852.4465263527</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6620,16 +6823,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s"/>
     </row>
@@ -6638,16 +6841,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s"/>
     </row>
@@ -6656,19 +6859,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F43" t="n">
-        <v>38050.56398943566</v>
+        <v>1999463.044848671</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6676,16 +6879,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s"/>
     </row>
@@ -6694,16 +6897,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s"/>
     </row>
@@ -6712,19 +6915,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" t="n">
-        <v>1365964.530379661</v>
+        <v>6837256.420748785</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6732,16 +6935,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s"/>
     </row>
@@ -6750,16 +6953,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s"/>
     </row>
@@ -6768,19 +6971,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" t="n">
-        <v>269090.8653008012</v>
+        <v>241846.8129173583</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6788,16 +6991,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s"/>
     </row>
@@ -6806,16 +7009,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s"/>
     </row>
@@ -6824,19 +7027,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" t="n">
-        <v>665455.9738229518</v>
+        <v>1502011.271028037</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6844,16 +7047,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s"/>
     </row>
@@ -6862,16 +7065,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s"/>
     </row>
@@ -6880,19 +7083,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F55" t="n">
-        <v>235062.2413626769</v>
+        <v>680255.3235916186</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6900,16 +7103,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s"/>
     </row>
@@ -6918,16 +7121,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s"/>
     </row>
@@ -6936,19 +7139,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F58" t="n">
-        <v>278840.8175036829</v>
+        <v>1056781.136928749</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6956,16 +7159,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s"/>
     </row>
@@ -6974,16 +7177,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s"/>
     </row>
@@ -6992,19 +7195,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F61" t="n">
-        <v>12869.34029686651</v>
+        <v>413885.6095185739</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7012,16 +7215,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s"/>
     </row>
@@ -7030,16 +7233,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s"/>
     </row>
@@ -7048,19 +7251,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F64" t="n">
-        <v>326165.1540142762</v>
+        <v>826058.8822940608</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7068,16 +7271,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s"/>
     </row>
@@ -7086,16 +7289,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s"/>
     </row>
@@ -7104,19 +7307,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F67" t="n">
-        <v>798983.70754717</v>
+        <v>2410959.383380356</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7124,16 +7327,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s"/>
     </row>
@@ -7142,16 +7345,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s"/>
     </row>
@@ -7160,19 +7363,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
         <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F70" t="n">
-        <v>930523.3459488672</v>
+        <v>6791.468675096205</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7180,16 +7383,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s"/>
     </row>
@@ -7198,16 +7401,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s"/>
     </row>
@@ -7216,19 +7419,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>56</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F73" t="n">
-        <v>501279.0267601245</v>
+        <v>4980545.731379519</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7236,16 +7439,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s"/>
     </row>
@@ -7254,16 +7457,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s"/>
     </row>
@@ -7272,19 +7475,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76" t="n">
-        <v>650168.3772302464</v>
+        <v>706512.1879831771</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7292,16 +7495,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s"/>
     </row>
@@ -7310,16 +7513,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F78" t="s"/>
     </row>
@@ -7328,19 +7531,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
         <v>57</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F79" t="n">
-        <v>4379974.088021694</v>
+        <v>480474.4460712131</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -7348,16 +7551,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F80" t="s"/>
     </row>
@@ -7366,16 +7569,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s"/>
     </row>
@@ -7384,19 +7587,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F82" t="n">
-        <v>8797181.52435535</v>
+        <v>11961896.658647</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -7404,16 +7607,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F83" t="s"/>
     </row>
@@ -7422,16 +7625,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F84" t="s"/>
     </row>
@@ -7440,19 +7643,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
         <v>58</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F85" t="n">
-        <v>42327660.34098432</v>
+        <v>22781030.56227674</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -7460,16 +7663,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
         <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F86" t="s"/>
     </row>
@@ -7478,16 +7681,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
         <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F87" t="s"/>
     </row>
@@ -7496,19 +7699,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
         <v>59</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F88" t="n">
-        <v>34.81196261682243</v>
+        <v>68095912.49927844</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -7516,16 +7719,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" t="s">
         <v>111</v>
-      </c>
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" t="s">
-        <v>61</v>
       </c>
       <c r="F89" t="s"/>
     </row>
@@ -7534,16 +7737,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F90" t="s"/>
     </row>
@@ -7552,19 +7755,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F91" t="n">
-        <v>505443.2059409645</v>
+        <v>98599.71675155149</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -7572,16 +7775,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F92" t="s"/>
     </row>
@@ -7590,16 +7793,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F93" t="s"/>
     </row>
@@ -7608,19 +7811,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
         <v>60</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F94" t="n">
-        <v>722690.784180233</v>
+        <v>1787273.152273818</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -7628,16 +7831,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F95" t="s"/>
     </row>
@@ -7646,18 +7849,74 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" t="s"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" t="s">
         <v>61</v>
       </c>
-      <c r="F96" t="s"/>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1505506.911739092</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" t="s">
+        <v>62</v>
+      </c>
+      <c r="F98" t="s"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
